--- a/data/trans_orig/P43D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0995CD-54C7-436A-994E-CCC1859E4E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA08A95-7C14-4DCA-B1FC-029E02C88FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F33CD488-FA07-4E00-A8B9-35F1E30C4048}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D37013EF-8A8A-4426-9A81-E8CC5BFA88D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="356">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,1015 +80,1033 @@
     <t>5,85%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,38%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0E41E2-C34C-49A7-BF16-B212DFFBF13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A1655-C9B9-4D03-8A4B-D6830DF0717F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2186,7 +2204,7 @@
         <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>148</v>
@@ -2201,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2247,13 @@
         <v>147365</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2244,13 +2262,13 @@
         <v>147365</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2296,13 @@
         <v>95390</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -2293,13 +2311,13 @@
         <v>95390</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2371,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2396,13 @@
         <v>70871</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -2393,13 +2411,13 @@
         <v>70871</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2445,13 @@
         <v>124652</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>120</v>
@@ -2442,13 +2460,13 @@
         <v>124652</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2494,13 @@
         <v>103450</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -2491,13 +2509,13 @@
         <v>103450</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2543,13 @@
         <v>65957</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -2540,13 +2558,13 @@
         <v>65957</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2618,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2625,13 +2643,13 @@
         <v>88596</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2640,13 +2658,13 @@
         <v>88596</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2692,13 @@
         <v>72608</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -2689,13 +2707,13 @@
         <v>72608</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2741,13 @@
         <v>45448</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -2738,13 +2756,13 @@
         <v>45448</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2790,13 @@
         <v>16380</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -2787,13 +2805,13 @@
         <v>16380</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2865,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2872,13 +2890,13 @@
         <v>122464</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -2887,13 +2905,13 @@
         <v>122464</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2939,13 @@
         <v>41730</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2936,13 +2954,13 @@
         <v>41730</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2988,13 @@
         <v>23293</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -2985,13 +3003,13 @@
         <v>23293</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3037,7 @@
         <v>5551</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>90</v>
@@ -3034,7 +3052,7 @@
         <v>5551</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>90</v>
@@ -3312,7 +3330,7 @@
         <v>1730</v>
       </c>
       <c r="I38" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
@@ -3327,7 +3345,7 @@
         <v>1730</v>
       </c>
       <c r="N38" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>27</v>
@@ -3363,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A1B89-FB3A-4718-8597-3FA4BF5112CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF60567-1291-4168-9658-6EC1C1662866}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4216,7 +4234,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4463,7 +4481,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4710,7 +4728,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5226,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F245A6-5A2C-46AF-B30E-9973B4CA94CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B119CFF-E7C9-4F66-8E66-661341C68A61}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5412,13 +5430,13 @@
         <v>58852</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5427,13 +5445,13 @@
         <v>58852</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5479,13 @@
         <v>62303</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -5476,13 +5494,13 @@
         <v>62303</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5528,13 @@
         <v>33103</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5525,13 +5543,13 @@
         <v>33103</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5628,13 @@
         <v>45225</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5625,13 +5643,13 @@
         <v>45225</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5677,13 @@
         <v>170194</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -5674,13 +5692,13 @@
         <v>170194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,10 +5726,10 @@
         <v>109197</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>210</v>
@@ -5723,10 +5741,10 @@
         <v>109197</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>210</v>
@@ -6079,7 +6097,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6326,7 +6344,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6449,13 +6467,13 @@
         <v>54735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -6464,13 +6482,13 @@
         <v>54735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6516,13 @@
         <v>36329</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -6513,13 +6531,13 @@
         <v>36329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6591,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6598,13 +6616,13 @@
         <v>228972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -6613,13 +6631,13 @@
         <v>228972</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6665,13 @@
         <v>79881</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -6662,13 +6680,13 @@
         <v>79881</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6714,13 @@
         <v>34881</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -6711,13 +6729,13 @@
         <v>34881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6763,13 @@
         <v>10842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6760,13 +6778,13 @@
         <v>10842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6863,13 @@
         <v>530927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M34" s="7">
         <v>484</v>
@@ -6860,13 +6878,13 @@
         <v>530927</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6912,13 @@
         <v>931197</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M35" s="7">
         <v>888</v>
@@ -6909,13 +6927,13 @@
         <v>931197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6961,13 @@
         <v>494240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M36" s="7">
         <v>478</v>
@@ -6958,13 +6976,13 @@
         <v>494240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7010,13 @@
         <v>282721</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -7007,13 +7025,13 @@
         <v>282721</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36434DB1-B267-46A2-A9C4-A0F419E648B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6958EE62-062D-4499-A1F8-7C220E594F3E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7106,7 +7124,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7226,13 +7244,13 @@
         <v>1415</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7241,13 +7259,13 @@
         <v>1415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7293,13 @@
         <v>12226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -7290,13 +7308,13 @@
         <v>12226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7342,13 @@
         <v>19814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7339,13 +7357,13 @@
         <v>19814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7391,13 @@
         <v>14079</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7388,13 +7406,13 @@
         <v>14079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7491,13 @@
         <v>36173</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -7488,13 +7506,13 @@
         <v>36173</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7540,13 @@
         <v>79320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -7537,13 +7555,13 @@
         <v>79320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7589,13 @@
         <v>44647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -7586,13 +7604,13 @@
         <v>44647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7638,13 @@
         <v>41401</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -7635,13 +7653,13 @@
         <v>41401</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7738,13 @@
         <v>51812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7735,13 +7753,13 @@
         <v>51812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,10 +7790,10 @@
         <v>145</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -7787,10 +7805,10 @@
         <v>145</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7836,13 @@
         <v>64697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -7833,13 +7851,13 @@
         <v>64697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7885,13 @@
         <v>51245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -7882,13 +7900,13 @@
         <v>51245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7960,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7967,13 +7985,13 @@
         <v>74740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -7982,13 +8000,13 @@
         <v>74740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8034,13 @@
         <v>146716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -8031,13 +8049,13 @@
         <v>146716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8083,13 @@
         <v>106585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -8080,13 +8098,13 @@
         <v>106585</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8132,13 @@
         <v>63984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -8129,13 +8147,13 @@
         <v>63984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,7 +8207,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8214,13 +8232,13 @@
         <v>81183</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -8229,13 +8247,13 @@
         <v>81183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8281,13 @@
         <v>120441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -8278,13 +8296,13 @@
         <v>120441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8330,13 @@
         <v>71630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -8327,13 +8345,13 @@
         <v>71630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8379,13 @@
         <v>35550</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -8376,13 +8394,13 @@
         <v>35550</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,7 +8454,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8461,13 +8479,13 @@
         <v>249825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>466</v>
@@ -8476,13 +8494,13 @@
         <v>249825</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8528,13 @@
         <v>77585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>149</v>
@@ -8525,13 +8543,13 @@
         <v>77585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,13 +8577,13 @@
         <v>40897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M31" s="7">
         <v>70</v>
@@ -8574,13 +8592,13 @@
         <v>40897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8626,13 @@
         <v>17935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M32" s="7">
         <v>34</v>
@@ -8623,13 +8641,13 @@
         <v>17935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,13 +8726,13 @@
         <v>495148</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>798</v>
@@ -8723,13 +8741,13 @@
         <v>495148</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>342</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8757,13 +8775,13 @@
         <v>539232</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M35" s="7">
         <v>808</v>
@@ -8772,13 +8790,13 @@
         <v>539232</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8824,13 @@
         <v>348271</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M36" s="7">
         <v>490</v>
@@ -8821,13 +8839,13 @@
         <v>348271</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,13 +8873,13 @@
         <v>224194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="M37" s="7">
         <v>314</v>
@@ -8870,13 +8888,13 @@
         <v>224194</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA08A95-7C14-4DCA-B1FC-029E02C88FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93C1D0C-0C00-468A-89EA-ED9669042958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D37013EF-8A8A-4426-9A81-E8CC5BFA88D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{139AE3D4-FE08-47BE-BCF7-6F8506C77F00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="348">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>29,06%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>37,2%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,973 +116,949 @@
     <t>27,9%</t>
   </si>
   <si>
-    <t>19,82%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
   </si>
   <si>
     <t>31,48%</t>
@@ -1518,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A1655-C9B9-4D03-8A4B-D6830DF0717F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2884317-70A0-4F4F-88D6-8A63C26317F2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,7 +2180,7 @@
         <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>148</v>
@@ -2219,7 +2195,7 @@
         <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2223,13 @@
         <v>147365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2262,13 +2238,13 @@
         <v>147365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2272,13 @@
         <v>95390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -2311,13 +2287,13 @@
         <v>95390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2347,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2372,13 @@
         <v>70871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -2411,13 +2387,13 @@
         <v>70871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2421,13 @@
         <v>124652</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>120</v>
@@ -2460,13 +2436,13 @@
         <v>124652</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2470,13 @@
         <v>103450</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -2509,13 +2485,13 @@
         <v>103450</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2519,13 @@
         <v>65957</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -2558,13 +2534,13 @@
         <v>65957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2594,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2619,13 @@
         <v>88596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2658,13 +2634,13 @@
         <v>88596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2668,13 @@
         <v>72608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -2707,13 +2683,13 @@
         <v>72608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2717,13 @@
         <v>45448</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -2756,13 +2732,13 @@
         <v>45448</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2766,13 @@
         <v>16380</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -2805,13 +2781,13 @@
         <v>16380</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2841,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2866,13 @@
         <v>122464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -2905,13 +2881,13 @@
         <v>122464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,7 +2915,7 @@
         <v>41730</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>84</v>
@@ -2954,7 +2930,7 @@
         <v>41730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>84</v>
@@ -3330,7 +3306,7 @@
         <v>1730</v>
       </c>
       <c r="I38" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
@@ -3345,7 +3321,7 @@
         <v>1730</v>
       </c>
       <c r="N38" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>27</v>
@@ -3381,7 +3357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF60567-1291-4168-9658-6EC1C1662866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD4131C-0DC8-4C01-9EBA-A104AB2B5DB0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3866,10 +3842,10 @@
         <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -3881,10 +3857,10 @@
         <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3888,13 @@
         <v>101317</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -3927,13 +3903,13 @@
         <v>101317</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3988,13 @@
         <v>81832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4027,13 +4003,13 @@
         <v>81832</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4037,13 @@
         <v>194886</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M15" s="7">
         <v>186</v>
@@ -4076,13 +4052,13 @@
         <v>194886</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4086,13 @@
         <v>172201</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -4125,13 +4101,13 @@
         <v>172201</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4135,13 @@
         <v>125346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -4174,13 +4150,13 @@
         <v>125346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4210,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4235,13 @@
         <v>80887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4274,13 +4250,13 @@
         <v>80887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4284,13 @@
         <v>187162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -4323,13 +4299,13 @@
         <v>187162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4333,13 @@
         <v>153297</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>133</v>
@@ -4372,13 +4348,13 @@
         <v>153297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4382,13 @@
         <v>70747</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -4421,13 +4397,13 @@
         <v>70747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4457,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4506,13 +4482,13 @@
         <v>80231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -4521,13 +4497,13 @@
         <v>80231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4531,13 @@
         <v>114611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4570,13 +4546,13 @@
         <v>114611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4580,13 @@
         <v>82475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -4619,13 +4595,13 @@
         <v>82475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4629,13 @@
         <v>38839</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
         <v>34</v>
@@ -4668,13 +4644,13 @@
         <v>38839</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4704,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4753,13 +4729,13 @@
         <v>156383</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -4768,13 +4744,13 @@
         <v>156383</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4778,13 @@
         <v>74792</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -4817,13 +4793,13 @@
         <v>74792</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4827,13 @@
         <v>37214</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -4866,13 +4842,13 @@
         <v>37214</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4876,13 @@
         <v>21656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -4915,13 +4891,13 @@
         <v>21656</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4976,13 @@
         <v>446289</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>411</v>
@@ -5015,13 +4991,13 @@
         <v>446289</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5025,13 @@
         <v>790350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M35" s="7">
         <v>731</v>
@@ -5064,13 +5040,13 @@
         <v>790350</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5074,13 @@
         <v>638729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>586</v>
@@ -5113,13 +5089,13 @@
         <v>638729</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5123,13 @@
         <v>414556</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -5162,13 +5138,13 @@
         <v>414556</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B119CFF-E7C9-4F66-8E66-661341C68A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5868A-D651-46FA-9CB8-21A3D7F8B02D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5261,7 +5237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5381,13 +5357,13 @@
         <v>9501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5396,13 +5372,13 @@
         <v>9501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5406,13 @@
         <v>58852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5445,13 +5421,13 @@
         <v>58852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5455,13 @@
         <v>62303</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -5494,13 +5470,13 @@
         <v>62303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5504,13 @@
         <v>33103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5543,13 +5519,13 @@
         <v>33103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5604,13 @@
         <v>45225</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5643,13 +5619,13 @@
         <v>45225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5653,13 @@
         <v>170194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -5692,13 +5668,13 @@
         <v>170194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5702,13 @@
         <v>109197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5741,13 +5717,13 @@
         <v>109197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5751,13 @@
         <v>53451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5790,13 +5766,13 @@
         <v>53451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5851,13 @@
         <v>59524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5890,13 +5866,13 @@
         <v>59524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5900,13 @@
         <v>249797</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M15" s="7">
         <v>248</v>
@@ -5939,13 +5915,13 @@
         <v>249797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5949,13 @@
         <v>120350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -5988,13 +5964,13 @@
         <v>120350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +5998,13 @@
         <v>88587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6037,13 +6013,13 @@
         <v>88587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6073,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6122,13 +6098,13 @@
         <v>94727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6137,13 +6113,13 @@
         <v>94727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6147,13 @@
         <v>224918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>206</v>
@@ -6186,13 +6162,13 @@
         <v>224918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6196,13 @@
         <v>112774</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -6235,13 +6211,13 @@
         <v>112774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6245,13 @@
         <v>60409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -6284,13 +6260,13 @@
         <v>60409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,7 +6320,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6369,13 +6345,13 @@
         <v>92979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -6384,13 +6360,13 @@
         <v>92979</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6394,13 @@
         <v>147555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6433,13 +6409,13 @@
         <v>147555</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6443,13 @@
         <v>54735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -6482,13 +6458,13 @@
         <v>54735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6492,13 @@
         <v>36329</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -6531,13 +6507,13 @@
         <v>36329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6567,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6616,13 +6592,13 @@
         <v>228972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -6631,13 +6607,13 @@
         <v>228972</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6641,13 @@
         <v>79881</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -6680,13 +6656,13 @@
         <v>79881</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6690,13 @@
         <v>34881</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -6729,13 +6705,13 @@
         <v>34881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6739,13 @@
         <v>10842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6778,13 +6754,13 @@
         <v>10842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6839,13 @@
         <v>530927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" s="7">
         <v>484</v>
@@ -6878,13 +6854,13 @@
         <v>530927</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6888,13 @@
         <v>931197</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M35" s="7">
         <v>888</v>
@@ -6927,13 +6903,13 @@
         <v>931197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6937,13 @@
         <v>494240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>478</v>
@@ -6976,13 +6952,13 @@
         <v>494240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +6986,13 @@
         <v>282721</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -7025,13 +7001,13 @@
         <v>282721</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,7 +7083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6958EE62-062D-4499-A1F8-7C220E594F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B178573-5F34-4603-9980-7E6D0CCCE90D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7124,7 +7100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7244,13 +7220,13 @@
         <v>1415</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7259,13 +7235,13 @@
         <v>1415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,13 +7269,13 @@
         <v>12226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -7308,13 +7284,13 @@
         <v>12226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7318,13 @@
         <v>19814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7357,13 +7333,13 @@
         <v>19814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7367,13 @@
         <v>14079</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7406,13 +7382,13 @@
         <v>14079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7467,13 @@
         <v>36173</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -7506,13 +7482,13 @@
         <v>36173</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7516,13 @@
         <v>79320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -7555,13 +7531,13 @@
         <v>79320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7565,13 @@
         <v>44647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -7604,13 +7580,13 @@
         <v>44647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7614,13 @@
         <v>41401</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -7653,13 +7629,13 @@
         <v>41401</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7714,13 @@
         <v>51812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7753,13 +7729,13 @@
         <v>51812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7763,13 @@
         <v>102944</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -7802,13 +7778,13 @@
         <v>102944</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,13 +7812,13 @@
         <v>64697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -7851,13 +7827,13 @@
         <v>64697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7861,13 @@
         <v>51245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -7900,13 +7876,13 @@
         <v>51245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7936,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7985,13 +7961,13 @@
         <v>74740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -8000,13 +7976,13 @@
         <v>74740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8010,13 @@
         <v>146716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -8049,13 +8025,13 @@
         <v>146716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8059,13 @@
         <v>106585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -8098,13 +8074,13 @@
         <v>106585</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8108,13 @@
         <v>63984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -8147,13 +8123,13 @@
         <v>63984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,7 +8183,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8232,13 +8208,13 @@
         <v>81183</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -8247,13 +8223,13 @@
         <v>81183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8257,13 @@
         <v>120441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -8296,13 +8272,13 @@
         <v>120441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,13 +8306,13 @@
         <v>71630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -8345,13 +8321,13 @@
         <v>71630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,13 +8355,13 @@
         <v>35550</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -8394,13 +8370,13 @@
         <v>35550</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,7 +8430,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8479,13 +8455,13 @@
         <v>249825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>466</v>
@@ -8494,13 +8470,13 @@
         <v>249825</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8504,13 @@
         <v>77585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
         <v>149</v>
@@ -8543,13 +8519,13 @@
         <v>77585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,13 +8553,13 @@
         <v>40897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M31" s="7">
         <v>70</v>
@@ -8592,13 +8568,13 @@
         <v>40897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8602,13 @@
         <v>17935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M32" s="7">
         <v>34</v>
@@ -8641,13 +8617,13 @@
         <v>17935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,13 +8702,13 @@
         <v>495148</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="M34" s="7">
         <v>798</v>
@@ -8741,13 +8717,13 @@
         <v>495148</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>97</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,13 +8751,13 @@
         <v>539232</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M35" s="7">
         <v>808</v>
@@ -8790,13 +8766,13 @@
         <v>539232</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8800,13 @@
         <v>348271</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M36" s="7">
         <v>490</v>
@@ -8839,13 +8815,13 @@
         <v>348271</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8873,13 +8849,13 @@
         <v>224194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M37" s="7">
         <v>314</v>
@@ -8888,13 +8864,13 @@
         <v>224194</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93C1D0C-0C00-468A-89EA-ED9669042958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C2C2F9-2585-4003-BE81-92E0A0C8BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{139AE3D4-FE08-47BE-BCF7-6F8506C77F00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4DC025F-38AF-4453-80E4-5AE3A758F91B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="350">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,997 +92,1003 @@
     <t>29,06%</t>
   </si>
   <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>23,65%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>12,38%</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2884317-70A0-4F4F-88D6-8A63C26317F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED45FF3-A921-495C-8829-64D62E809305}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2915,13 +2921,13 @@
         <v>41730</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2930,13 +2936,13 @@
         <v>41730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2970,13 @@
         <v>23293</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -2979,13 +2985,13 @@
         <v>23293</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3019,7 @@
         <v>5551</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>90</v>
@@ -3028,7 +3034,7 @@
         <v>5551</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>90</v>
@@ -3357,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD4131C-0DC8-4C01-9EBA-A104AB2B5DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98043892-251A-40E2-9CA2-76D98BBDA99F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,10 +3848,10 @@
         <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -3857,10 +3863,10 @@
         <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3894,13 @@
         <v>101317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -3903,13 +3909,13 @@
         <v>101317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3994,13 @@
         <v>81832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4003,13 +4009,13 @@
         <v>81832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4043,13 @@
         <v>194886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M15" s="7">
         <v>186</v>
@@ -4052,13 +4058,13 @@
         <v>194886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4092,13 @@
         <v>172201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -4101,13 +4107,13 @@
         <v>172201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4141,13 @@
         <v>125346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -4150,13 +4156,13 @@
         <v>125346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4241,13 @@
         <v>80887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4250,13 +4256,13 @@
         <v>80887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4290,13 @@
         <v>187162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -4299,13 +4305,13 @@
         <v>187162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4339,13 @@
         <v>153297</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>133</v>
@@ -4348,13 +4354,13 @@
         <v>153297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4388,13 @@
         <v>70747</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -4397,13 +4403,13 @@
         <v>70747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4488,13 @@
         <v>80231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -4497,13 +4503,13 @@
         <v>80231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4537,13 @@
         <v>114611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4546,13 +4552,13 @@
         <v>114611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4586,13 @@
         <v>82475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -4595,13 +4601,13 @@
         <v>82475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4635,13 @@
         <v>38839</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>34</v>
@@ -4644,13 +4650,13 @@
         <v>38839</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4735,13 @@
         <v>156383</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -4744,13 +4750,13 @@
         <v>156383</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4784,13 @@
         <v>74792</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -4793,13 +4799,13 @@
         <v>74792</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4833,13 @@
         <v>37214</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -4842,13 +4848,13 @@
         <v>37214</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4882,13 @@
         <v>21656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -4891,13 +4897,13 @@
         <v>21656</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4982,13 @@
         <v>446289</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>411</v>
@@ -4991,13 +4997,13 @@
         <v>446289</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5031,13 @@
         <v>790350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>731</v>
@@ -5040,13 +5046,13 @@
         <v>790350</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5080,13 @@
         <v>638729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>586</v>
@@ -5089,13 +5095,13 @@
         <v>638729</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5129,13 @@
         <v>414556</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -5138,13 +5144,13 @@
         <v>414556</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5868A-D651-46FA-9CB8-21A3D7F8B02D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214BE3E-ED5D-4B2D-98FA-62D069986D77}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5237,7 +5243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5357,13 +5363,13 @@
         <v>9501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5372,13 +5378,13 @@
         <v>9501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5412,13 @@
         <v>58852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5421,13 +5427,13 @@
         <v>58852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5461,13 @@
         <v>62303</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -5470,13 +5476,13 @@
         <v>62303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5510,13 @@
         <v>33103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5519,13 +5525,13 @@
         <v>33103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5610,13 @@
         <v>45225</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5619,13 +5625,13 @@
         <v>45225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5659,13 @@
         <v>170194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -5668,13 +5674,13 @@
         <v>170194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5708,13 @@
         <v>109197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5717,13 +5723,13 @@
         <v>109197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5757,13 @@
         <v>53451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5766,13 +5772,13 @@
         <v>53451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5857,13 @@
         <v>59524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5866,13 +5872,13 @@
         <v>59524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5906,13 @@
         <v>249797</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M15" s="7">
         <v>248</v>
@@ -5915,13 +5921,13 @@
         <v>249797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5955,13 @@
         <v>120350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -5964,13 +5970,13 @@
         <v>120350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6004,13 @@
         <v>88587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6013,13 +6019,13 @@
         <v>88587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6104,13 @@
         <v>94727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6113,13 +6119,13 @@
         <v>94727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6153,13 @@
         <v>224918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>206</v>
@@ -6162,13 +6168,13 @@
         <v>224918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6202,13 @@
         <v>112774</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -6211,13 +6217,13 @@
         <v>112774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6251,13 @@
         <v>60409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -6260,13 +6266,13 @@
         <v>60409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6351,13 @@
         <v>92979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -6360,13 +6366,13 @@
         <v>92979</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6400,13 @@
         <v>147555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6409,13 +6415,13 @@
         <v>147555</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6449,13 @@
         <v>54735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -6458,13 +6464,13 @@
         <v>54735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6498,13 @@
         <v>36329</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -6507,13 +6513,13 @@
         <v>36329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6598,13 @@
         <v>228972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -6607,13 +6613,13 @@
         <v>228972</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6647,13 @@
         <v>79881</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -6656,13 +6662,13 @@
         <v>79881</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6696,13 @@
         <v>34881</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -6705,13 +6711,13 @@
         <v>34881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6745,13 @@
         <v>10842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6754,13 +6760,13 @@
         <v>10842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6845,13 @@
         <v>530927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M34" s="7">
         <v>484</v>
@@ -6854,13 +6860,13 @@
         <v>530927</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6894,13 @@
         <v>931197</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M35" s="7">
         <v>888</v>
@@ -6903,13 +6909,13 @@
         <v>931197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6943,13 @@
         <v>494240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M36" s="7">
         <v>478</v>
@@ -6952,13 +6958,13 @@
         <v>494240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6992,13 @@
         <v>282721</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -7001,13 +7007,13 @@
         <v>282721</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B178573-5F34-4603-9980-7E6D0CCCE90D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92605D84-2BC0-4498-AB19-F03188E9C3CC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7100,7 +7106,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7220,13 +7226,13 @@
         <v>1415</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7235,13 +7241,13 @@
         <v>1415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7275,13 @@
         <v>12226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -7284,13 +7290,13 @@
         <v>12226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7324,13 @@
         <v>19814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7333,13 +7339,13 @@
         <v>19814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7373,13 @@
         <v>14079</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7382,13 +7388,13 @@
         <v>14079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7473,13 @@
         <v>36173</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -7482,13 +7488,13 @@
         <v>36173</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7522,13 @@
         <v>79320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -7531,13 +7537,13 @@
         <v>79320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7571,13 @@
         <v>44647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -7580,13 +7586,13 @@
         <v>44647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7620,13 @@
         <v>41401</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -7629,13 +7635,13 @@
         <v>41401</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7720,13 @@
         <v>51812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7729,13 +7735,13 @@
         <v>51812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7769,13 @@
         <v>102944</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -7778,13 +7784,13 @@
         <v>102944</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7818,13 @@
         <v>64697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -7827,13 +7833,13 @@
         <v>64697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7867,13 @@
         <v>51245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -7876,13 +7882,13 @@
         <v>51245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7967,13 @@
         <v>74740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -7976,13 +7982,13 @@
         <v>74740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8016,13 @@
         <v>146716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -8025,13 +8031,13 @@
         <v>146716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8065,13 @@
         <v>106585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -8074,13 +8080,13 @@
         <v>106585</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8114,13 @@
         <v>63984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -8123,13 +8129,13 @@
         <v>63984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8214,13 @@
         <v>81183</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -8223,13 +8229,13 @@
         <v>81183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8263,13 @@
         <v>120441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -8272,13 +8278,13 @@
         <v>120441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,13 +8312,13 @@
         <v>71630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -8321,13 +8327,13 @@
         <v>71630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8361,13 @@
         <v>35550</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -8370,13 +8376,13 @@
         <v>35550</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8461,13 @@
         <v>249825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>466</v>
@@ -8470,13 +8476,13 @@
         <v>249825</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8504,13 +8510,13 @@
         <v>77585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M30" s="7">
         <v>149</v>
@@ -8519,13 +8525,13 @@
         <v>77585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,13 +8559,13 @@
         <v>40897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
         <v>70</v>
@@ -8568,13 +8574,13 @@
         <v>40897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,13 +8608,13 @@
         <v>17935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M32" s="7">
         <v>34</v>
@@ -8617,13 +8623,13 @@
         <v>17935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,13 +8708,13 @@
         <v>495148</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M34" s="7">
         <v>798</v>
@@ -8717,13 +8723,13 @@
         <v>495148</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,10 +8760,10 @@
         <v>69</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M35" s="7">
         <v>808</v>
@@ -8769,10 +8775,10 @@
         <v>69</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8806,13 @@
         <v>348271</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M36" s="7">
         <v>490</v>
@@ -8815,13 +8821,13 @@
         <v>348271</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +8855,13 @@
         <v>224194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>314</v>
@@ -8864,13 +8870,13 @@
         <v>224194</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C2C2F9-2585-4003-BE81-92E0A0C8BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F9FEB6-40DF-4B2A-9A5C-4DEC1298E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4DC025F-38AF-4453-80E4-5AE3A758F91B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{109CB7C6-BF05-4C3E-9EFE-EB184B1D86DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="399">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>11,06%</t>
@@ -164,7 +164,7 @@
     <t>34,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>18,37%</t>
@@ -203,7 +203,7 @@
     <t>23,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>19,42%</t>
@@ -242,7 +242,7 @@
     <t>22,87%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>39,72%</t>
@@ -281,40 +281,82 @@
     <t>11,5%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>23,69%</t>
@@ -539,40 +581,76 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>19,49%</t>
@@ -788,40 +866,70 @@
     <t>14,54%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>23,71%</t>
@@ -860,235 +968,274 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>11,27%</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED45FF3-A921-495C-8829-64D62E809305}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060254E1-ECC5-48C6-A613-94B67A4A90F3}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2866,10 +3013,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="I29" s="7">
-        <v>122464</v>
+        <v>70446</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>81</v>
@@ -2881,10 +3028,10 @@
         <v>83</v>
       </c>
       <c r="M29" s="7">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="N29" s="7">
-        <v>122464</v>
+        <v>70446</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>81</v>
@@ -2915,10 +3062,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>41730</v>
+        <v>34758</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>84</v>
@@ -2930,10 +3077,10 @@
         <v>86</v>
       </c>
       <c r="M30" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>41730</v>
+        <v>34758</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>84</v>
@@ -2964,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I31" s="7">
-        <v>23293</v>
+        <v>18784</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>87</v>
@@ -2979,10 +3126,10 @@
         <v>89</v>
       </c>
       <c r="M31" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>23293</v>
+        <v>18784</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>87</v>
@@ -3016,31 +3163,31 @@
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +3209,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="I33" s="7">
-        <v>193038</v>
+        <v>129539</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -3077,10 +3224,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="N33" s="7">
-        <v>193038</v>
+        <v>129539</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -3094,7 +3241,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3113,34 +3260,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>410</v>
+        <v>46</v>
       </c>
       <c r="I34" s="7">
-        <v>421540</v>
+        <v>52017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="7">
+        <v>46</v>
+      </c>
+      <c r="N34" s="7">
+        <v>52017</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M34" s="7">
-        <v>410</v>
-      </c>
-      <c r="N34" s="7">
-        <v>421540</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,34 +3309,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>542</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>554054</v>
+        <v>6972</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="7">
+        <v>7</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6972</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M35" s="7">
-        <v>542</v>
-      </c>
-      <c r="N35" s="7">
-        <v>554054</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="P35" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,34 +3358,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>460</v>
+        <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>471680</v>
+        <v>4509</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="7">
+        <v>4</v>
+      </c>
+      <c r="N36" s="7">
+        <v>4509</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M36" s="7">
-        <v>460</v>
-      </c>
-      <c r="N36" s="7">
-        <v>471680</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="P36" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,34 +3407,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>331836</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="7">
-        <v>318</v>
-      </c>
-      <c r="N37" s="7">
-        <v>331836</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,48 +3456,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>57</v>
+      </c>
+      <c r="I38" s="7">
+        <v>63498</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>57</v>
+      </c>
+      <c r="N38" s="7">
+        <v>63498</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>410</v>
+      </c>
+      <c r="I39" s="7">
+        <v>421540</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="7">
+        <v>410</v>
+      </c>
+      <c r="N39" s="7">
+        <v>421540</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>542</v>
+      </c>
+      <c r="I40" s="7">
+        <v>554054</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="7">
+        <v>542</v>
+      </c>
+      <c r="N40" s="7">
+        <v>554054</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>460</v>
+      </c>
+      <c r="I41" s="7">
+        <v>471680</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="7">
+        <v>460</v>
+      </c>
+      <c r="N41" s="7">
+        <v>471680</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>318</v>
+      </c>
+      <c r="I42" s="7">
+        <v>331836</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="7">
+        <v>318</v>
+      </c>
+      <c r="N42" s="7">
+        <v>331836</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>1730</v>
       </c>
-      <c r="I38" s="7">
-        <v>1779110</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1779109</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>1730</v>
       </c>
-      <c r="N38" s="7">
-        <v>1779110</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="N43" s="7">
+        <v>1779109</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3363,8 +3758,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98043892-251A-40E2-9CA2-76D98BBDA99F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB72D8-C142-48B6-B6C2-27CC45B538DE}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3380,7 +3775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3500,13 +3895,13 @@
         <v>4055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3515,13 +3910,13 @@
         <v>4055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3944,13 @@
         <v>51595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3564,13 +3959,13 @@
         <v>51595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3993,13 @@
         <v>55076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3613,13 +4008,13 @@
         <v>55076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +4042,13 @@
         <v>56651</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3662,13 +4057,13 @@
         <v>56651</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +4142,13 @@
         <v>42902</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -3762,13 +4157,13 @@
         <v>42902</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +4191,13 @@
         <v>167303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -3811,13 +4206,13 @@
         <v>167303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4240,13 @@
         <v>138467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -3860,13 +4255,13 @@
         <v>138467</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +4289,13 @@
         <v>101317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -3909,13 +4304,13 @@
         <v>101317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4389,13 @@
         <v>81832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4009,13 +4404,13 @@
         <v>81832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4438,13 @@
         <v>194886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" s="7">
         <v>186</v>
@@ -4058,13 +4453,13 @@
         <v>194886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4487,13 @@
         <v>172201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -4107,13 +4502,13 @@
         <v>172201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4536,13 @@
         <v>125346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -4156,13 +4551,13 @@
         <v>125346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4636,13 @@
         <v>80887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4256,13 +4651,13 @@
         <v>80887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4685,13 @@
         <v>187162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -4305,13 +4700,13 @@
         <v>187162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4734,13 @@
         <v>153297</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M21" s="7">
         <v>133</v>
@@ -4354,13 +4749,13 @@
         <v>153297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4783,13 @@
         <v>70747</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -4403,13 +4798,13 @@
         <v>70747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4883,13 @@
         <v>80231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -4503,13 +4898,13 @@
         <v>80231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4932,13 @@
         <v>114611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4552,13 +4947,13 @@
         <v>114611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4981,13 @@
         <v>82475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -4601,13 +4996,13 @@
         <v>82475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5030,13 @@
         <v>38839</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
         <v>34</v>
@@ -4650,13 +5045,13 @@
         <v>38839</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,34 +5124,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="I29" s="7">
-        <v>156383</v>
+        <v>84790</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="N29" s="7">
-        <v>156383</v>
+        <v>84790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,34 +5173,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I30" s="7">
-        <v>74792</v>
+        <v>48654</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N30" s="7">
-        <v>74792</v>
+        <v>48654</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,34 +5222,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I31" s="7">
-        <v>37214</v>
+        <v>30432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N31" s="7">
-        <v>37214</v>
+        <v>30432</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,34 +5271,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>21656</v>
+        <v>16098</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N32" s="7">
-        <v>21656</v>
+        <v>16098</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,10 +5320,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="I33" s="7">
-        <v>290045</v>
+        <v>179974</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -4940,10 +5335,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="N33" s="7">
-        <v>290045</v>
+        <v>179974</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -4957,7 +5352,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4976,34 +5371,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="I34" s="7">
-        <v>446289</v>
+        <v>71593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="N34" s="7">
-        <v>446289</v>
+        <v>71593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,34 +5420,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>731</v>
+        <v>22</v>
       </c>
       <c r="I35" s="7">
-        <v>790350</v>
+        <v>26139</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
-        <v>731</v>
+        <v>22</v>
       </c>
       <c r="N35" s="7">
-        <v>790350</v>
+        <v>26139</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,34 +5469,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>586</v>
+        <v>6</v>
       </c>
       <c r="I36" s="7">
-        <v>638729</v>
+        <v>6782</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
-        <v>586</v>
+        <v>6</v>
       </c>
       <c r="N36" s="7">
-        <v>638729</v>
+        <v>6782</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,34 +5518,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>376</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>414556</v>
+        <v>5558</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
-        <v>376</v>
+        <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>414556</v>
+        <v>5558</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,48 +5567,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>98</v>
+      </c>
+      <c r="I38" s="7">
+        <v>110072</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>98</v>
+      </c>
+      <c r="N38" s="7">
+        <v>110072</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>411</v>
+      </c>
+      <c r="I39" s="7">
+        <v>446289</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" s="7">
+        <v>411</v>
+      </c>
+      <c r="N39" s="7">
+        <v>446289</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>731</v>
+      </c>
+      <c r="I40" s="7">
+        <v>790350</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" s="7">
+        <v>731</v>
+      </c>
+      <c r="N40" s="7">
+        <v>790350</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>586</v>
+      </c>
+      <c r="I41" s="7">
+        <v>638729</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" s="7">
+        <v>586</v>
+      </c>
+      <c r="N41" s="7">
+        <v>638729</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>376</v>
+      </c>
+      <c r="I42" s="7">
+        <v>414556</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M42" s="7">
+        <v>376</v>
+      </c>
+      <c r="N42" s="7">
+        <v>414556</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>2104</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>2289924</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>2104</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2289924</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5226,8 +5869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214BE3E-ED5D-4B2D-98FA-62D069986D77}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E612C-B1D3-476E-9A1F-0E804263BE7C}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5243,7 +5886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5363,13 +6006,13 @@
         <v>9501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5378,13 +6021,13 @@
         <v>9501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +6055,13 @@
         <v>58852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5427,13 +6070,13 @@
         <v>58852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +6104,13 @@
         <v>62303</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -5476,13 +6119,13 @@
         <v>62303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +6153,13 @@
         <v>33103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5525,13 +6168,13 @@
         <v>33103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +6253,13 @@
         <v>45225</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5625,13 +6268,13 @@
         <v>45225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +6302,13 @@
         <v>170194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -5674,13 +6317,13 @@
         <v>170194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +6351,13 @@
         <v>109197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5723,13 +6366,13 @@
         <v>109197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +6400,13 @@
         <v>53451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5772,13 +6415,13 @@
         <v>53451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +6500,13 @@
         <v>59524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5872,13 +6515,13 @@
         <v>59524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +6549,13 @@
         <v>249797</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>248</v>
@@ -5921,13 +6564,13 @@
         <v>249797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +6598,13 @@
         <v>120350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -5970,13 +6613,13 @@
         <v>120350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6647,13 @@
         <v>88587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6019,13 +6662,13 @@
         <v>88587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6747,13 @@
         <v>94727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6119,13 +6762,13 @@
         <v>94727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6796,13 @@
         <v>224918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>206</v>
@@ -6168,13 +6811,13 @@
         <v>224918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6845,13 @@
         <v>112774</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -6217,13 +6860,13 @@
         <v>112774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6894,13 @@
         <v>60409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -6266,13 +6909,13 @@
         <v>60409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6994,13 @@
         <v>92979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -6366,13 +7009,13 @@
         <v>92979</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +7043,13 @@
         <v>147555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6415,13 +7058,13 @@
         <v>147555</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +7092,13 @@
         <v>54735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -6464,13 +7107,13 @@
         <v>54735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +7141,13 @@
         <v>36329</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -6513,13 +7156,13 @@
         <v>36329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,34 +7235,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="I29" s="7">
-        <v>228972</v>
+        <v>123500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M29" s="7">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="N29" s="7">
-        <v>228972</v>
+        <v>123500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,34 +7284,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I30" s="7">
-        <v>79881</v>
+        <v>59639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M30" s="7">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N30" s="7">
-        <v>79881</v>
+        <v>59639</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,34 +7333,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I31" s="7">
-        <v>34881</v>
+        <v>22125</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M31" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N31" s="7">
-        <v>34881</v>
+        <v>22125</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +7388,13 @@
         <v>10842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6760,13 +7403,13 @@
         <v>10842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,10 +7431,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>354577</v>
+        <v>216106</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -6803,10 +7446,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="N33" s="7">
-        <v>354577</v>
+        <v>216106</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -6820,7 +7463,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6839,34 +7482,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="I34" s="7">
-        <v>530927</v>
+        <v>105472</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M34" s="7">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="N34" s="7">
-        <v>530927</v>
+        <v>105472</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,34 +7531,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>888</v>
+        <v>14</v>
       </c>
       <c r="I35" s="7">
-        <v>931197</v>
+        <v>20243</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M35" s="7">
-        <v>888</v>
+        <v>14</v>
       </c>
       <c r="N35" s="7">
-        <v>931197</v>
+        <v>20243</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,34 +7580,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>478</v>
+        <v>8</v>
       </c>
       <c r="I36" s="7">
-        <v>494240</v>
+        <v>12756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M36" s="7">
-        <v>478</v>
+        <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>494240</v>
+        <v>12756</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,34 +7629,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>282721</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="M37" s="7">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>282721</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,48 +7678,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>102</v>
+      </c>
+      <c r="I38" s="7">
+        <v>138471</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>102</v>
+      </c>
+      <c r="N38" s="7">
+        <v>138471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>484</v>
+      </c>
+      <c r="I39" s="7">
+        <v>530927</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" s="7">
+        <v>484</v>
+      </c>
+      <c r="N39" s="7">
+        <v>530927</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>888</v>
+      </c>
+      <c r="I40" s="7">
+        <v>931197</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" s="7">
+        <v>888</v>
+      </c>
+      <c r="N40" s="7">
+        <v>931197</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>478</v>
+      </c>
+      <c r="I41" s="7">
+        <v>494240</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" s="7">
+        <v>478</v>
+      </c>
+      <c r="N41" s="7">
+        <v>494240</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>270</v>
+      </c>
+      <c r="I42" s="7">
+        <v>282721</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" s="7">
+        <v>270</v>
+      </c>
+      <c r="N42" s="7">
+        <v>282721</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>2120</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>2239086</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>2120</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2239086</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7089,8 +7980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92605D84-2BC0-4498-AB19-F03188E9C3CC}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365FC29D-7751-461E-BDE8-FAFF591D64F9}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7106,7 +7997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7223,31 +8114,31 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1415</v>
+        <v>1347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1415</v>
+        <v>1347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,31 +8163,31 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>12226</v>
+        <v>10834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>12226</v>
+        <v>10834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,31 +8212,31 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>19814</v>
+        <v>18634</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>19814</v>
+        <v>18634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,31 +8261,31 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>14079</v>
+        <v>12365</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>14079</v>
+        <v>12365</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +8310,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -7434,7 +8325,7 @@
         <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -7470,31 +8361,31 @@
         <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>36173</v>
+        <v>89078</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
       </c>
       <c r="N9" s="7">
-        <v>36173</v>
+        <v>89078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,31 +8410,31 @@
         <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>79320</v>
+        <v>75055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>79320</v>
+        <v>75055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,31 +8459,31 @@
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>44647</v>
+        <v>41291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>44647</v>
+        <v>41291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,31 +8508,31 @@
         <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>41401</v>
+        <v>39499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>41401</v>
+        <v>39499</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,7 +8557,7 @@
         <v>171</v>
       </c>
       <c r="I13" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -7681,7 +8572,7 @@
         <v>171</v>
       </c>
       <c r="N13" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -7717,31 +8608,31 @@
         <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>51812</v>
+        <v>49636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>51812</v>
+        <v>49636</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,31 +8657,31 @@
         <v>151</v>
       </c>
       <c r="I15" s="7">
-        <v>102944</v>
+        <v>96415</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>102944</v>
+        <v>96415</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,31 +8706,31 @@
         <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>64697</v>
+        <v>59438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
       </c>
       <c r="N16" s="7">
-        <v>64697</v>
+        <v>59438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,31 +8755,31 @@
         <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>51245</v>
+        <v>48239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>51245</v>
+        <v>48239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,7 +8804,7 @@
         <v>391</v>
       </c>
       <c r="I18" s="7">
-        <v>270698</v>
+        <v>253728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -7928,7 +8819,7 @@
         <v>391</v>
       </c>
       <c r="N18" s="7">
-        <v>270698</v>
+        <v>253728</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -7964,31 +8855,31 @@
         <v>104</v>
       </c>
       <c r="I19" s="7">
-        <v>74740</v>
+        <v>94503</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
       </c>
       <c r="N19" s="7">
-        <v>74740</v>
+        <v>94503</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,31 +8904,31 @@
         <v>219</v>
       </c>
       <c r="I20" s="7">
-        <v>146716</v>
+        <v>134202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
       </c>
       <c r="N20" s="7">
-        <v>146716</v>
+        <v>134202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,31 +8953,31 @@
         <v>157</v>
       </c>
       <c r="I21" s="7">
-        <v>106585</v>
+        <v>98211</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
       </c>
       <c r="N21" s="7">
-        <v>106585</v>
+        <v>98211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,31 +9002,31 @@
         <v>105</v>
       </c>
       <c r="I22" s="7">
-        <v>63984</v>
+        <v>60004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
       </c>
       <c r="N22" s="7">
-        <v>63984</v>
+        <v>60004</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,7 +9051,7 @@
         <v>585</v>
       </c>
       <c r="I23" s="7">
-        <v>392025</v>
+        <v>386920</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -8175,7 +9066,7 @@
         <v>585</v>
       </c>
       <c r="N23" s="7">
-        <v>392025</v>
+        <v>386920</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -8211,31 +9102,31 @@
         <v>130</v>
       </c>
       <c r="I24" s="7">
-        <v>81183</v>
+        <v>75433</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
       </c>
       <c r="N24" s="7">
-        <v>81183</v>
+        <v>75433</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,31 +9151,31 @@
         <v>206</v>
       </c>
       <c r="I25" s="7">
-        <v>120441</v>
+        <v>110996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
       </c>
       <c r="N25" s="7">
-        <v>120441</v>
+        <v>110996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,31 +9200,31 @@
         <v>120</v>
       </c>
       <c r="I26" s="7">
-        <v>71630</v>
+        <v>64934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
       </c>
       <c r="N26" s="7">
-        <v>71630</v>
+        <v>64934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,31 +9249,31 @@
         <v>60</v>
       </c>
       <c r="I27" s="7">
-        <v>35550</v>
+        <v>32966</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
       </c>
       <c r="N27" s="7">
-        <v>35550</v>
+        <v>32966</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +9298,7 @@
         <v>516</v>
       </c>
       <c r="I28" s="7">
-        <v>308804</v>
+        <v>284329</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -8422,7 +9313,7 @@
         <v>516</v>
       </c>
       <c r="N28" s="7">
-        <v>308804</v>
+        <v>284329</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -8455,34 +9346,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>466</v>
+        <v>190</v>
       </c>
       <c r="I29" s="7">
-        <v>249825</v>
+        <v>93643</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
-        <v>466</v>
+        <v>190</v>
       </c>
       <c r="N29" s="7">
-        <v>249825</v>
+        <v>93643</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8504,34 +9395,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I30" s="7">
-        <v>77585</v>
+        <v>59783</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M30" s="7">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="N30" s="7">
-        <v>77585</v>
+        <v>59783</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,34 +9444,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I31" s="7">
-        <v>40897</v>
+        <v>27264</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M31" s="7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N31" s="7">
-        <v>40897</v>
+        <v>27264</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,34 +9493,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I32" s="7">
-        <v>17935</v>
+        <v>15073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N32" s="7">
-        <v>17935</v>
+        <v>15073</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,10 +9542,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>719</v>
+        <v>402</v>
       </c>
       <c r="I33" s="7">
-        <v>386242</v>
+        <v>195763</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -8666,10 +9557,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>719</v>
+        <v>402</v>
       </c>
       <c r="N33" s="7">
-        <v>386242</v>
+        <v>195763</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -8683,7 +9574,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8702,34 +9593,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>798</v>
+        <v>276</v>
       </c>
       <c r="I34" s="7">
-        <v>495148</v>
+        <v>135382</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M34" s="7">
-        <v>798</v>
+        <v>276</v>
       </c>
       <c r="N34" s="7">
-        <v>495148</v>
+        <v>135382</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8751,34 +9642,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>808</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7">
-        <v>539232</v>
+        <v>11132</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>69</v>
+        <v>380</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="M35" s="7">
-        <v>808</v>
+        <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>539232</v>
+        <v>11132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>69</v>
+        <v>380</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,34 +9691,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="I36" s="7">
-        <v>348271</v>
+        <v>8615</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M36" s="7">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="N36" s="7">
-        <v>348271</v>
+        <v>8615</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,34 +9740,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>224194</v>
+        <v>1485</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="M37" s="7">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>224194</v>
+        <v>1485</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8898,48 +9789,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>317</v>
+      </c>
+      <c r="I38" s="7">
+        <v>156614</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>317</v>
+      </c>
+      <c r="N38" s="7">
+        <v>156614</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>798</v>
+      </c>
+      <c r="I39" s="7">
+        <v>539022</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M39" s="7">
+        <v>798</v>
+      </c>
+      <c r="N39" s="7">
+        <v>539022</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>808</v>
+      </c>
+      <c r="I40" s="7">
+        <v>498418</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="7">
+        <v>808</v>
+      </c>
+      <c r="N40" s="7">
+        <v>498418</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>490</v>
+      </c>
+      <c r="I41" s="7">
+        <v>318388</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M41" s="7">
+        <v>490</v>
+      </c>
+      <c r="N41" s="7">
+        <v>318388</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>314</v>
+      </c>
+      <c r="I42" s="7">
+        <v>209630</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M42" s="7">
+        <v>314</v>
+      </c>
+      <c r="N42" s="7">
+        <v>209630</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>2410</v>
       </c>
-      <c r="I38" s="7">
-        <v>1606846</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1565458</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>2410</v>
       </c>
-      <c r="N38" s="7">
-        <v>1606846</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="N43" s="7">
+        <v>1565458</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
